--- a/Data/Bilançolar/AKYHO.xlsx
+++ b/Data/Bilançolar/AKYHO.xlsx
@@ -11411,7 +11411,7 @@
         <v>8838215</v>
       </c>
       <c r="C73" t="n">
-        <v>3388462</v>
+        <v>3326367</v>
       </c>
       <c r="D73" t="n">
         <v>6079718</v>
@@ -11562,7 +11562,7 @@
         <v>-6016452</v>
       </c>
       <c r="C74" t="n">
-        <v>-2678971</v>
+        <v>-2551145</v>
       </c>
       <c r="D74" t="n">
         <v>-11363867</v>
@@ -11864,7 +11864,7 @@
         <v>2821763</v>
       </c>
       <c r="C76" t="n">
-        <v>709491</v>
+        <v>775222</v>
       </c>
       <c r="D76" t="n">
         <v>-5284149</v>
@@ -12770,7 +12770,7 @@
         <v>2821763</v>
       </c>
       <c r="C82" t="n">
-        <v>709491</v>
+        <v>775222</v>
       </c>
       <c r="D82" t="n">
         <v>-5284149</v>
@@ -13072,7 +13072,7 @@
         <v>-7210281</v>
       </c>
       <c r="C84" t="n">
-        <v>-3520405</v>
+        <v>-3648231</v>
       </c>
       <c r="D84" t="n">
         <v>-12198816</v>
@@ -13374,7 +13374,7 @@
         <v>10716751</v>
       </c>
       <c r="C86" t="n">
-        <v>4451131</v>
+        <v>2569031</v>
       </c>
       <c r="D86" t="n">
         <v>27138853</v>
@@ -13525,7 +13525,7 @@
         <v>-8489462</v>
       </c>
       <c r="C87" t="n">
-        <v>-2289396</v>
+        <v>-3662129</v>
       </c>
       <c r="D87" t="n">
         <v>-20748692</v>
@@ -13827,7 +13827,7 @@
         <v>-2889114</v>
       </c>
       <c r="C89" t="n">
-        <v>-1039195</v>
+        <v>-4356123</v>
       </c>
       <c r="D89" t="n">
         <v>-11348468</v>
@@ -13978,7 +13978,7 @@
         <v>-5116403</v>
       </c>
       <c r="C90" t="n">
-        <v>-3200930</v>
+        <v>-3263025</v>
       </c>
       <c r="D90" t="n">
         <v>-17738629</v>
@@ -14129,7 +14129,7 @@
         <v>231958</v>
       </c>
       <c r="C91" t="n">
-        <v>471631</v>
+        <v>70311</v>
       </c>
       <c r="D91" t="n">
         <v>1456176</v>
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-765835</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>-6029215</v>
@@ -14733,7 +14733,7 @@
         <v>-2657156</v>
       </c>
       <c r="C95" t="n">
-        <v>-1333399</v>
+        <v>-4285812</v>
       </c>
       <c r="D95" t="n">
         <v>-15921507</v>
@@ -14884,7 +14884,7 @@
         <v>7530233</v>
       </c>
       <c r="C96" t="n">
-        <v>1799921</v>
+        <v>4137288</v>
       </c>
       <c r="D96" t="n">
         <v>30901465</v>
@@ -15035,7 +15035,7 @@
         <v>-10109035</v>
       </c>
       <c r="C97" t="n">
-        <v>-4717031</v>
+        <v>-4101985</v>
       </c>
       <c r="D97" t="n">
         <v>-4560354</v>
@@ -15186,7 +15186,7 @@
         <v>231958</v>
       </c>
       <c r="C98" t="n">
-        <v>-294204</v>
+        <v>70311</v>
       </c>
       <c r="D98" t="n">
         <v>-4573039</v>
@@ -18055,7 +18055,7 @@
         <v>-10109035</v>
       </c>
       <c r="C117" t="n">
-        <v>-4717031</v>
+        <v>-4101985</v>
       </c>
       <c r="D117" t="n">
         <v>-4560354</v>
